--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dsvcorp-my.sharepoint.com/personal/nour_ben-romdhane_dsv_com/Documents/Desktop/nancy/POP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{FFE6458C-6352-4988-BBD0-DB630D7F3FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFBE3345-A0C9-4334-AB9C-88712B415024}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{FFE6458C-6352-4988-BBD0-DB630D7F3FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D69CF45-98CD-43C5-A812-F19A630CCC53}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86EF4FC3-218C-4F7F-AEF4-6343A98D741E}"/>
   </bookViews>
@@ -1095,6 +1095,90 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1106,90 +1190,6 @@
     </xf>
     <xf numFmtId="49" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="13" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,8 +1528,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AN153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="AF27" sqref="AF27"/>
+    <sheetView tabSelected="1" topLeftCell="D50" workbookViewId="0">
+      <selection activeCell="AA58" sqref="AA58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,8 +1604,8 @@
     </row>
     <row r="3" spans="2:40" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -2058,8 +2058,8 @@
     </row>
     <row r="20" spans="2:32" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="27"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
@@ -2214,91 +2214,91 @@
     </row>
     <row r="26" spans="2:32" s="1" customFormat="1" ht="21.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:32" s="1" customFormat="1" ht="22.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="97"/>
+      <c r="V27" s="97"/>
+      <c r="W27" s="97"/>
+      <c r="X27" s="97"/>
+      <c r="Y27" s="97"/>
+      <c r="Z27" s="97"/>
+      <c r="AA27" s="97"/>
+      <c r="AB27" s="97"/>
     </row>
     <row r="28" spans="2:32" s="1" customFormat="1" ht="10.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:32" s="1" customFormat="1" ht="18.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="35"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="75"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="92"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="92"/>
+      <c r="V29" s="92"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="92"/>
+      <c r="Y29" s="93"/>
     </row>
     <row r="30" spans="2:32" s="1" customFormat="1" ht="18.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B30" s="36"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="75"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="93"/>
     </row>
     <row r="31" spans="2:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="36"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
       <c r="E31" s="37"/>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -2323,8 +2323,8 @@
     </row>
     <row r="32" spans="2:32" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="39"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
       <c r="E32" s="40">
         <f t="shared" ref="E32:AE32" si="0">$AL$3</f>
         <v>37.39</v>
@@ -2440,8 +2440,8 @@
     </row>
     <row r="33" spans="2:32" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="42"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="43">
         <f t="shared" ref="E33:X33" si="1">IFERROR(E35/E32,0)</f>
         <v>0</v>
@@ -2557,8 +2557,8 @@
     </row>
     <row r="34" spans="2:32" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="45"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
       <c r="E34" s="46">
         <f t="shared" ref="E34:X34" si="3">IFERROR(E35/(E36+E37),0)</f>
         <v>0</v>
@@ -2674,8 +2674,8 @@
     </row>
     <row r="35" spans="2:32" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="42"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
       <c r="E35" s="48">
         <f t="shared" ref="E35:X35" si="5">IF(E6*(1+$E$52)+E7*(1+$H$52)=0,0,E6*(1+$E$52)+E7*(1+$H$52))</f>
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="36" spans="2:32" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="42"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
       <c r="E36" s="48">
-        <f t="shared" ref="E36:X36" si="7">E58+E59</f>
+        <f t="shared" ref="E36:W36" si="7">E58+E59</f>
         <v>0</v>
       </c>
       <c r="F36" s="43">
@@ -2870,35 +2870,35 @@
         <v>0</v>
       </c>
       <c r="X36" s="43">
-        <f t="shared" si="7"/>
+        <f>X58+X59</f>
         <v>0</v>
       </c>
       <c r="Y36" s="43">
-        <f t="shared" ref="Y36:AE36" si="8">Y58+Y59</f>
+        <f>Y58+Y59</f>
         <v>0</v>
       </c>
       <c r="Z36" s="43">
-        <f t="shared" si="8"/>
+        <f>Z58+Z59</f>
         <v>0</v>
       </c>
       <c r="AA36" s="43">
-        <f t="shared" si="8"/>
+        <f>AA58+AA59</f>
         <v>0</v>
       </c>
       <c r="AB36" s="43">
-        <f t="shared" si="8"/>
+        <f>AB58+AB59</f>
         <v>0</v>
       </c>
       <c r="AC36" s="43">
-        <f t="shared" si="8"/>
+        <f>AC58+AC59</f>
         <v>0</v>
       </c>
       <c r="AD36" s="43">
-        <f t="shared" si="8"/>
+        <f>AD58+AD59</f>
         <v>0</v>
       </c>
       <c r="AE36" s="43">
-        <f t="shared" si="8"/>
+        <f>AE58+AE59</f>
         <v>0</v>
       </c>
       <c r="AF36" s="44">
@@ -2908,114 +2908,114 @@
     </row>
     <row r="37" spans="2:32" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
       <c r="E37" s="48">
-        <f t="shared" ref="E37:X37" si="9">SUM(E60:E63)</f>
+        <f t="shared" ref="E37:W37" si="8">SUM(E60:E63)</f>
         <v>0</v>
       </c>
       <c r="F37" s="43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G37" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H37" s="43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I37" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J37" s="43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K37" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L37" s="43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M37" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N37" s="43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O37" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P37" s="43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q37" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R37" s="43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S37" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T37" s="43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U37" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V37" s="43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W37" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X37" s="43">
-        <f t="shared" si="9"/>
+        <f>SUM(X60:X63)</f>
         <v>0</v>
       </c>
       <c r="Y37" s="43">
-        <f t="shared" ref="Y37:AE37" si="10">SUM(Y60:Y63)</f>
+        <f>SUM(Y60:Y63)</f>
         <v>0</v>
       </c>
       <c r="Z37" s="43">
-        <f t="shared" si="10"/>
+        <f>SUM(Z60:Z63)</f>
         <v>0</v>
       </c>
       <c r="AA37" s="43">
-        <f t="shared" si="10"/>
+        <f>SUM(AA60:AA63)</f>
         <v>0</v>
       </c>
       <c r="AB37" s="43">
-        <f t="shared" si="10"/>
+        <f>SUM(AB60:AB63)</f>
         <v>0</v>
       </c>
       <c r="AC37" s="43">
-        <f t="shared" si="10"/>
+        <f>SUM(AC60:AC63)</f>
         <v>0</v>
       </c>
       <c r="AD37" s="43">
-        <f t="shared" si="10"/>
+        <f>SUM(AD60:AD63)</f>
         <v>0</v>
       </c>
       <c r="AE37" s="43">
-        <f t="shared" si="10"/>
+        <f>SUM(AE60:AE63)</f>
         <v>0</v>
       </c>
       <c r="AF37" s="44">
@@ -3025,114 +3025,114 @@
     </row>
     <row r="38" spans="2:32" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="39"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
       <c r="E38" s="40">
-        <f t="shared" ref="E38:AE38" si="11">$AM$3</f>
+        <f t="shared" ref="E38:AE38" si="9">$AM$3</f>
         <v>23.23</v>
       </c>
       <c r="F38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="G38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="H38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="I38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="J38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="K38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="L38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="M38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="N38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="O38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="P38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="Q38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="R38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="S38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="T38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="U38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="V38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="W38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="X38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="Y38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="Z38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="AA38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="AB38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="AC38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="AD38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="AE38" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>23.23</v>
       </c>
       <c r="AF38" s="41">
@@ -3142,114 +3142,114 @@
     </row>
     <row r="39" spans="2:32" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="42"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
       <c r="E39" s="48">
-        <f t="shared" ref="E39:X39" si="12">IFERROR(E41/E38,0)</f>
+        <f t="shared" ref="E39:X39" si="10">IFERROR(E41/E38,0)</f>
         <v>0</v>
       </c>
       <c r="F39" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G39" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H39" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I39" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J39" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K39" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L39" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M39" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N39" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O39" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P39" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q39" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R39" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S39" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T39" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U39" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V39" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W39" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X39" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y39" s="43">
-        <f t="shared" ref="Y39:AE39" si="13">IFERROR(Y41/Y38,0)</f>
+        <f t="shared" ref="Y39:AE39" si="11">IFERROR(Y41/Y38,0)</f>
         <v>0</v>
       </c>
       <c r="Z39" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA39" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB39" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC39" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD39" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE39" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF39" s="44">
@@ -3259,231 +3259,231 @@
     </row>
     <row r="40" spans="2:32" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="45"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="46">
-        <f t="shared" ref="E40:Y40" si="14">IFERROR(E41/(E42+E43),0)</f>
+        <f t="shared" ref="E40:X40" si="12">IFERROR(E41/(E42+E43),0)</f>
         <v>0</v>
       </c>
       <c r="F40" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G40" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H40" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I40" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J40" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K40" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L40" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M40" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N40" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O40" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P40" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q40" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R40" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S40" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T40" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U40" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V40" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W40" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X40" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y40" s="46">
-        <f t="shared" ref="Y40:AE40" si="15">IFERROR(Y41/(Y42+Y43),0)</f>
+        <f t="shared" ref="Y40:AE40" si="13">IFERROR(Y41/(Y42+Y43),0)</f>
         <v>0</v>
       </c>
       <c r="Z40" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA40" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB40" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC40" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD40" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE40" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF40" s="47">
-        <f t="shared" ref="AF40" si="16">IFERROR(AF41/(AF42+AF43),0)</f>
+        <f t="shared" ref="AF40" si="14">IFERROR(AF41/(AF42+AF43),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:32" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="42"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
       <c r="E41" s="48">
-        <f t="shared" ref="E41:X41" si="17">IF(E6*(1+$E$52)="","",E6*(1+$E$52))</f>
+        <f t="shared" ref="E41:X41" si="15">IF(E6*(1+$E$52)="","",E6*(1+$E$52))</f>
         <v>0</v>
       </c>
       <c r="F41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G41" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I41" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K41" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M41" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O41" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q41" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S41" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U41" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W41" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y41" s="43">
-        <f t="shared" ref="Y41:AE41" si="18">IF(Y6*(1+$E$52)="","",Y6*(1+$E$52))</f>
+        <f t="shared" ref="Y41:AE41" si="16">IF(Y6*(1+$E$52)="","",Y6*(1+$E$52))</f>
         <v>0</v>
       </c>
       <c r="Z41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF41" s="44">
@@ -3493,114 +3493,114 @@
     </row>
     <row r="42" spans="2:32" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
       <c r="E42" s="48">
-        <f t="shared" ref="E42:X42" si="19">E59</f>
+        <f t="shared" ref="E42:W42" si="17">E59</f>
         <v>0</v>
       </c>
       <c r="F42" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G42" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H42" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I42" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J42" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K42" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L42" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M42" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N42" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O42" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P42" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q42" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R42" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S42" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T42" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U42" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V42" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W42" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X42" s="43">
-        <f t="shared" si="19"/>
+        <f>X59</f>
         <v>0</v>
       </c>
       <c r="Y42" s="43">
-        <f t="shared" ref="Y42:AE42" si="20">Y59</f>
+        <f>Y59</f>
         <v>0</v>
       </c>
       <c r="Z42" s="43">
-        <f t="shared" si="20"/>
+        <f>Z59</f>
         <v>0</v>
       </c>
       <c r="AA42" s="43">
-        <f t="shared" si="20"/>
+        <f>AA59</f>
         <v>0</v>
       </c>
       <c r="AB42" s="43">
-        <f t="shared" si="20"/>
+        <f>AB59</f>
         <v>0</v>
       </c>
       <c r="AC42" s="43">
-        <f t="shared" si="20"/>
+        <f>AC59</f>
         <v>0</v>
       </c>
       <c r="AD42" s="43">
-        <f t="shared" si="20"/>
+        <f>AD59</f>
         <v>0</v>
       </c>
       <c r="AE42" s="43">
-        <f t="shared" si="20"/>
+        <f>AE59</f>
         <v>0</v>
       </c>
       <c r="AF42" s="44">
@@ -3610,114 +3610,114 @@
     </row>
     <row r="43" spans="2:32" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="42"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
       <c r="E43" s="48">
-        <f t="shared" ref="E43:X43" si="21">E61+E62</f>
+        <f t="shared" ref="E43:W43" si="18">E61+E62</f>
         <v>0</v>
       </c>
       <c r="F43" s="43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G43" s="48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H43" s="43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I43" s="48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J43" s="43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K43" s="48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L43" s="43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M43" s="48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N43" s="43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O43" s="48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P43" s="43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q43" s="48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R43" s="43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S43" s="48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T43" s="43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U43" s="48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V43" s="43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W43" s="48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X43" s="43">
-        <f t="shared" si="21"/>
+        <f>X61+X62</f>
         <v>0</v>
       </c>
       <c r="Y43" s="43">
-        <f t="shared" ref="Y43:AE43" si="22">Y61+Y62</f>
+        <f>Y61+Y62</f>
         <v>0</v>
       </c>
       <c r="Z43" s="43">
-        <f t="shared" si="22"/>
+        <f>Z61+Z62</f>
         <v>0</v>
       </c>
       <c r="AA43" s="43">
-        <f t="shared" si="22"/>
+        <f>AA61+AA62</f>
         <v>0</v>
       </c>
       <c r="AB43" s="43">
-        <f t="shared" si="22"/>
+        <f>AB61+AB62</f>
         <v>0</v>
       </c>
       <c r="AC43" s="43">
-        <f t="shared" si="22"/>
+        <f>AC61+AC62</f>
         <v>0</v>
       </c>
       <c r="AD43" s="43">
-        <f t="shared" si="22"/>
+        <f>AD61+AD62</f>
         <v>0</v>
       </c>
       <c r="AE43" s="43">
-        <f t="shared" si="22"/>
+        <f>AE61+AE62</f>
         <v>0</v>
       </c>
       <c r="AF43" s="44">
@@ -3727,82 +3727,82 @@
     </row>
     <row r="44" spans="2:32" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="49"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="89"/>
       <c r="E44" s="50">
-        <f t="shared" ref="E44:W44" si="23">$AN$3</f>
+        <f t="shared" ref="E44:W44" si="19">$AN$3</f>
         <v>8.3000000000000007</v>
       </c>
       <c r="F44" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="G44" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="H44" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="I44" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="J44" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="K44" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="L44" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="M44" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="N44" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="O44" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="P44" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="Q44" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="R44" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="S44" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="T44" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="U44" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="V44" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="W44" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="X44" s="50">
@@ -3810,31 +3810,31 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="Y44" s="50">
-        <f t="shared" ref="Y44:AE44" si="24">$AN$3</f>
+        <f t="shared" ref="Y44:AE44" si="20">$AN$3</f>
         <v>8.3000000000000007</v>
       </c>
       <c r="Z44" s="50">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="AA44" s="50">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="AB44" s="50">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="AC44" s="50">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="AD44" s="50">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="AE44" s="50">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="AF44" s="51">
@@ -3844,114 +3844,114 @@
     </row>
     <row r="45" spans="2:32" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="42"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="84"/>
       <c r="E45" s="48">
-        <f t="shared" ref="E45:X45" si="25">IFERROR(E47/E44,"")</f>
+        <f t="shared" ref="E45:X45" si="21">IFERROR(E47/E44,"")</f>
         <v>0</v>
       </c>
       <c r="F45" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G45" s="48">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H45" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I45" s="48">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J45" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K45" s="48">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L45" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M45" s="48">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N45" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O45" s="48">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P45" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q45" s="48">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R45" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S45" s="48">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T45" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U45" s="48">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V45" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W45" s="48">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X45" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Y45" s="43">
-        <f t="shared" ref="Y45:AE45" si="26">IFERROR(Y47/Y44,"")</f>
+        <f t="shared" ref="Y45:AE45" si="22">IFERROR(Y47/Y44,"")</f>
         <v>0</v>
       </c>
       <c r="Z45" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AA45" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB45" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC45" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AD45" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AE45" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF45" s="44">
@@ -3961,231 +3961,231 @@
     </row>
     <row r="46" spans="2:32" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="45"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
       <c r="E46" s="46" t="str">
-        <f t="shared" ref="E46:Y46" si="27">IFERROR(E47/E48,"")</f>
+        <f t="shared" ref="E46:X46" si="23">IFERROR(E47/E48,"")</f>
         <v/>
       </c>
       <c r="F46" s="46" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G46" s="46" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H46" s="46" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I46" s="46" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="J46" s="46" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="K46" s="46" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="L46" s="46" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="M46" s="46" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="N46" s="46" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O46" s="46" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P46" s="46" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Q46" s="46" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="R46" s="46" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="S46" s="46" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="T46" s="46" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="U46" s="46" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V46" s="46" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W46" s="46" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="X46" s="46" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Y46" s="46" t="str">
-        <f t="shared" ref="Y46:AE46" si="28">IFERROR(Y47/Y48,"")</f>
+        <f t="shared" ref="Y46:AE46" si="24">IFERROR(Y47/Y48,"")</f>
         <v/>
       </c>
       <c r="Z46" s="46" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AA46" s="46" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AB46" s="46" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AC46" s="46" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD46" s="46" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AE46" s="46" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AF46" s="47" t="str">
-        <f t="shared" ref="AF46" si="29">IFERROR(AF47/AF48,"")</f>
+        <f t="shared" ref="AF46" si="25">IFERROR(AF47/AF48,"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:32" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="42"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
       <c r="E47" s="48">
-        <f t="shared" ref="E47:X47" si="30">IF(E23*(1+$N$52)+E24*(1+$K$52)=0,0,E23*(1+$N$52)+E24*(1+$K$52))</f>
+        <f t="shared" ref="E47:X47" si="26">IF(E23*(1+$N$52)+E24*(1+$K$52)=0,0,E23*(1+$N$52)+E24*(1+$K$52))</f>
         <v>0</v>
       </c>
       <c r="F47" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G47" s="48">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H47" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I47" s="48">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J47" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K47" s="48">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L47" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M47" s="48">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N47" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O47" s="48">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P47" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q47" s="48">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R47" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S47" s="48">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T47" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U47" s="48">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V47" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W47" s="48">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="X47" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Y47" s="43">
-        <f t="shared" ref="Y47:AE47" si="31">IF(Y23*(1+$N$52)+Y24*(1+$K$52)=0,0,Y23*(1+$N$52)+Y24*(1+$K$52))</f>
+        <f t="shared" ref="Y47:AE47" si="27">IF(Y23*(1+$N$52)+Y24*(1+$K$52)=0,0,Y23*(1+$N$52)+Y24*(1+$K$52))</f>
         <v>0</v>
       </c>
       <c r="Z47" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AA47" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB47" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AC47" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AD47" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AE47" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AF47" s="44">
@@ -4195,114 +4195,114 @@
     </row>
     <row r="48" spans="2:32" s="1" customFormat="1" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="52"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="86"/>
       <c r="E48" s="53">
-        <f t="shared" ref="E48:X48" si="32">E64</f>
+        <f t="shared" ref="E48:W48" si="28">E64</f>
         <v>0</v>
       </c>
       <c r="F48" s="54">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G48" s="53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H48" s="54">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I48" s="53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J48" s="54">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K48" s="53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L48" s="54">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M48" s="53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N48" s="54">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O48" s="53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P48" s="54">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q48" s="53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="R48" s="54">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S48" s="53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T48" s="54">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U48" s="53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V48" s="54">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W48" s="53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X48" s="54">
-        <f t="shared" si="32"/>
+        <f>X64</f>
         <v>0</v>
       </c>
       <c r="Y48" s="54">
-        <f t="shared" ref="Y48:AE48" si="33">Y64</f>
+        <f>Y64</f>
         <v>0</v>
       </c>
       <c r="Z48" s="54">
-        <f t="shared" si="33"/>
+        <f>Z64</f>
         <v>0</v>
       </c>
       <c r="AA48" s="54">
-        <f t="shared" si="33"/>
+        <f>AA64</f>
         <v>0</v>
       </c>
       <c r="AB48" s="54">
-        <f t="shared" si="33"/>
+        <f>AB64</f>
         <v>0</v>
       </c>
       <c r="AC48" s="54">
-        <f t="shared" si="33"/>
+        <f>AC64</f>
         <v>0</v>
       </c>
       <c r="AD48" s="54">
-        <f t="shared" si="33"/>
+        <f>AD64</f>
         <v>0</v>
       </c>
       <c r="AE48" s="54">
-        <f t="shared" si="33"/>
+        <f>AE64</f>
         <v>0</v>
       </c>
       <c r="AF48" s="55">
@@ -4310,69 +4310,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:24" s="1" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:24" s="1" customFormat="1" ht="18.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="85"/>
-      <c r="O50" s="85"/>
-      <c r="P50" s="85"/>
-    </row>
-    <row r="51" spans="2:24" s="1" customFormat="1" ht="18.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="86"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="89"/>
-      <c r="N51" s="90"/>
-      <c r="O51" s="90"/>
-      <c r="P51" s="90"/>
-    </row>
-    <row r="52" spans="2:24" s="1" customFormat="1" ht="18.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="95"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="96"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="83"/>
-      <c r="O52" s="83"/>
-      <c r="P52" s="83"/>
-    </row>
-    <row r="53" spans="2:24" s="1" customFormat="1" ht="19.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="2:24" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-    </row>
-    <row r="55" spans="2:24" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="91"/>
-      <c r="D55" s="91"/>
-    </row>
-    <row r="56" spans="2:24" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="2:24" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:31" s="1" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:31" s="1" customFormat="1" ht="18.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="78"/>
+      <c r="N50" s="78"/>
+      <c r="O50" s="78"/>
+      <c r="P50" s="78"/>
+    </row>
+    <row r="51" spans="2:31" s="1" customFormat="1" ht="18.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="83"/>
+      <c r="P51" s="83"/>
+    </row>
+    <row r="52" spans="2:31" s="1" customFormat="1" ht="18.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="75"/>
+      <c r="M52" s="75"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="76"/>
+      <c r="P52" s="76"/>
+    </row>
+    <row r="53" spans="2:31" s="1" customFormat="1" ht="19.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:31" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
+    </row>
+    <row r="55" spans="2:31" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+    </row>
+    <row r="56" spans="2:31" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="2:31" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="56"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
       <c r="E57" s="57"/>
       <c r="F57" s="57"/>
       <c r="G57" s="57"/>
@@ -4394,605 +4394,801 @@
       <c r="W57" s="57"/>
       <c r="X57" s="57"/>
     </row>
-    <row r="58" spans="2:24" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:31" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="58"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="93"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
       <c r="E58" s="59">
-        <f t="shared" ref="E58:X58" si="34">SUMIF($B$75:$B$765,"521",E75:E767)+SUMIF($B$75:$B$765,"921",E74:E766)</f>
+        <f t="shared" ref="E58:W58" si="29">SUMIF($B$75:$B$765,"521",E75:E767)+SUMIF($B$75:$B$765,"921",E74:E766)</f>
         <v>0</v>
       </c>
       <c r="F58" s="59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="X58" s="59">
+        <f>SUMIF($B$75:$B$765,"521",X75:X767)+SUMIF($B$75:$B$765,"921",X74:X766)</f>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="59">
+        <f>SUMIF($B$75:$B$765,"521",Y75:Y767)+SUMIF($B$75:$B$765,"921",Y74:Y766)</f>
+        <v>0</v>
+      </c>
+      <c r="Z58" s="59">
+        <f>SUMIF($B$75:$B$765,"521",Z75:Z767)+SUMIF($B$75:$B$765,"921",Z74:Z766)</f>
+        <v>0</v>
+      </c>
+      <c r="AA58" s="59">
+        <f>SUMIF($B$75:$B$765,"521",AA75:AA767)+SUMIF($B$75:$B$765,"921",AA74:AA766)</f>
+        <v>0</v>
+      </c>
+      <c r="AB58" s="59">
+        <f>SUMIF($B$75:$B$765,"521",AB75:AB767)+SUMIF($B$75:$B$765,"921",AB74:AB766)</f>
+        <v>0</v>
+      </c>
+      <c r="AC58" s="59">
+        <f>SUMIF($B$75:$B$765,"521",AC75:AC767)+SUMIF($B$75:$B$765,"921",AC74:AC766)</f>
+        <v>0</v>
+      </c>
+      <c r="AD58" s="59">
+        <f>SUMIF($B$75:$B$765,"521",AD75:AD767)+SUMIF($B$75:$B$765,"921",AD74:AD766)</f>
+        <v>0</v>
+      </c>
+      <c r="AE58" s="59">
+        <f>SUMIF($B$75:$B$765,"521",AE75:AE767)+SUMIF($B$75:$B$765,"921",AE74:AE766)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:31" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="58"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="59">
+        <f t="shared" ref="E59:W59" si="30">SUMIF($B$75:$B$765,"522",E75:E767)+SUMIF($B$75:$B$765,"922",E75:E767)</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S59" s="59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="U59" s="59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="V59" s="59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W59" s="59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="X59" s="59">
+        <f>SUMIF($B$75:$B$765,"522",X75:X767)+SUMIF($B$75:$B$765,"922",X75:X767)</f>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="59">
+        <f>SUMIF($B$75:$B$765,"522",Y75:Y767)+SUMIF($B$75:$B$765,"922",Y75:Y767)</f>
+        <v>0</v>
+      </c>
+      <c r="Z59" s="59">
+        <f>SUMIF($B$75:$B$765,"522",Z75:Z767)+SUMIF($B$75:$B$765,"922",Z75:Z767)</f>
+        <v>0</v>
+      </c>
+      <c r="AA59" s="59">
+        <f>SUMIF($B$75:$B$765,"522",AA75:AA767)+SUMIF($B$75:$B$765,"922",AA75:AA767)</f>
+        <v>0</v>
+      </c>
+      <c r="AB59" s="59">
+        <f>SUMIF($B$75:$B$765,"522",AB75:AB767)+SUMIF($B$75:$B$765,"922",AB75:AB767)</f>
+        <v>0</v>
+      </c>
+      <c r="AC59" s="59">
+        <f>SUMIF($B$75:$B$765,"522",AC75:AC767)+SUMIF($B$75:$B$765,"922",AC75:AC767)</f>
+        <v>0</v>
+      </c>
+      <c r="AD59" s="59">
+        <f>SUMIF($B$75:$B$765,"522",AD75:AD767)+SUMIF($B$75:$B$765,"922",AD75:AD767)</f>
+        <v>0</v>
+      </c>
+      <c r="AE59" s="59">
+        <f>SUMIF($B$75:$B$765,"522",AE75:AE767)+SUMIF($B$75:$B$765,"922",AE75:AE767)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:31" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="58"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="59">
+        <f t="shared" ref="E60:W60" si="31">SUMIF($B$75:$B$765,"LRE",E75:E768)</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="59">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="59">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="59">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="59">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="59">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="59">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="59">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="59">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="59">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="59">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="59">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="59">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="59">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="59">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="59">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="U60" s="59">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="59">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W60" s="59">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="X60" s="59">
+        <f>SUMIF($B$75:$B$765,"LRE",X75:X768)</f>
+        <v>0</v>
+      </c>
+      <c r="Y60" s="59">
+        <f>SUMIF($B$75:$B$765,"LRE",Y75:Y768)</f>
+        <v>0</v>
+      </c>
+      <c r="Z60" s="59">
+        <f>SUMIF($B$75:$B$765,"LRE",Z75:Z768)</f>
+        <v>0</v>
+      </c>
+      <c r="AA60" s="59">
+        <f>SUMIF($B$75:$B$765,"LRE",AA75:AA768)</f>
+        <v>0</v>
+      </c>
+      <c r="AB60" s="59">
+        <f>SUMIF($B$75:$B$765,"LRE",AB75:AB768)</f>
+        <v>0</v>
+      </c>
+      <c r="AC60" s="59">
+        <f>SUMIF($B$75:$B$765,"LRE",AC75:AC768)</f>
+        <v>0</v>
+      </c>
+      <c r="AD60" s="59">
+        <f>SUMIF($B$75:$B$765,"LRE",AD75:AD768)</f>
+        <v>0</v>
+      </c>
+      <c r="AE60" s="59">
+        <f>SUMIF($B$75:$B$765,"LRE",AE75:AE768)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:31" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="58"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="59">
+        <f t="shared" ref="E61:W61" si="32">SUMIF($B$75:$B$765,"LR",E75:E769)</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="59">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="59">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="59">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="59">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="59">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="59">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="59">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="59">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="59">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="59">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="59">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="59">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="59">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="S61" s="59">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="T61" s="59">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="U61" s="59">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="V61" s="59">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="W61" s="59">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="X61" s="59">
+        <f>SUMIF($B$75:$B$765,"LR",X75:X769)</f>
+        <v>0</v>
+      </c>
+      <c r="Y61" s="59">
+        <f>SUMIF($B$75:$B$765,"LR",Y75:Y769)</f>
+        <v>0</v>
+      </c>
+      <c r="Z61" s="59">
+        <f>SUMIF($B$75:$B$765,"LR",Z75:Z769)</f>
+        <v>0</v>
+      </c>
+      <c r="AA61" s="59">
+        <f>SUMIF($B$75:$B$765,"LR",AA75:AA769)</f>
+        <v>0</v>
+      </c>
+      <c r="AB61" s="59">
+        <f>SUMIF($B$75:$B$765,"LR",AB75:AB769)</f>
+        <v>0</v>
+      </c>
+      <c r="AC61" s="59">
+        <f>SUMIF($B$75:$B$765,"LR",AC75:AC769)</f>
+        <v>0</v>
+      </c>
+      <c r="AD61" s="59">
+        <f>SUMIF($B$75:$B$765,"LR",AD75:AD769)</f>
+        <v>0</v>
+      </c>
+      <c r="AE61" s="59">
+        <f>SUMIF($B$75:$B$765,"LR",AE75:AE769)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:31" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="58"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="59">
+        <f t="shared" ref="E62:W62" si="33">SUMIF($B$75:$B$765,"LO",E75:E770)</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="59">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="59">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="59">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="59">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="59">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="59">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="59">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="59">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="59">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="59">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="59">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="59">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R62" s="59">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S62" s="59">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="T62" s="59">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="U62" s="59">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="V62" s="59">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="W62" s="59">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="X62" s="59">
+        <f>SUMIF($B$75:$B$765,"LO",X75:X770)</f>
+        <v>0</v>
+      </c>
+      <c r="Y62" s="59">
+        <f>SUMIF($B$75:$B$765,"LO",Y75:Y770)</f>
+        <v>0</v>
+      </c>
+      <c r="Z62" s="59">
+        <f>SUMIF($B$75:$B$765,"LO",Z75:Z770)</f>
+        <v>0</v>
+      </c>
+      <c r="AA62" s="59">
+        <f>SUMIF($B$75:$B$765,"LO",AA75:AA770)</f>
+        <v>0</v>
+      </c>
+      <c r="AB62" s="59">
+        <f>SUMIF($B$75:$B$765,"LO",AB75:AB770)</f>
+        <v>0</v>
+      </c>
+      <c r="AC62" s="59">
+        <f>SUMIF($B$75:$B$765,"LO",AC75:AC770)</f>
+        <v>0</v>
+      </c>
+      <c r="AD62" s="59">
+        <f>SUMIF($B$75:$B$765,"LO",AD75:AD770)</f>
+        <v>0</v>
+      </c>
+      <c r="AE62" s="59">
+        <f>SUMIF($B$75:$B$765,"LO",AE75:AE770)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:31" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="58"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="59">
+        <f t="shared" ref="E63:W63" si="34">SUMIF($B$75:$B$765,"LOE",E75:E771)</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="59">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G58" s="59">
+      <c r="G63" s="59">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="H58" s="59">
+      <c r="H63" s="59">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="I58" s="59">
+      <c r="I63" s="59">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J58" s="59">
+      <c r="J63" s="59">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K58" s="59">
+      <c r="K63" s="59">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="L58" s="59">
+      <c r="L63" s="59">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="M58" s="59">
+      <c r="M63" s="59">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="N58" s="59">
+      <c r="N63" s="59">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="O58" s="59">
+      <c r="O63" s="59">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="P58" s="59">
+      <c r="P63" s="59">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Q58" s="59">
+      <c r="Q63" s="59">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="R58" s="59">
+      <c r="R63" s="59">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="S58" s="59">
+      <c r="S63" s="59">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="T58" s="59">
+      <c r="T63" s="59">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="U58" s="59">
+      <c r="U63" s="59">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="V58" s="59">
+      <c r="V63" s="59">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="W58" s="59">
+      <c r="W63" s="59">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="X58" s="59">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:24" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="58"/>
-      <c r="C59" s="93"/>
-      <c r="D59" s="93"/>
-      <c r="E59" s="59">
-        <f t="shared" ref="E59:X59" si="35">SUMIF($B$75:$B$765,"522",E75:E767)+SUMIF($B$75:$B$765,"922",E75:E767)</f>
-        <v>0</v>
-      </c>
-      <c r="F59" s="59">
+      <c r="X63" s="59">
+        <f>SUMIF($B$75:$B$765,"LOE",X75:X771)</f>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="59">
+        <f>SUMIF($B$75:$B$765,"LOE",Y75:Y771)</f>
+        <v>0</v>
+      </c>
+      <c r="Z63" s="59">
+        <f>SUMIF($B$75:$B$765,"LOE",Z75:Z771)</f>
+        <v>0</v>
+      </c>
+      <c r="AA63" s="59">
+        <f>SUMIF($B$75:$B$765,"LOE",AA75:AA771)</f>
+        <v>0</v>
+      </c>
+      <c r="AB63" s="59">
+        <f>SUMIF($B$75:$B$765,"LOE",AB75:AB771)</f>
+        <v>0</v>
+      </c>
+      <c r="AC63" s="59">
+        <f>SUMIF($B$75:$B$765,"LOE",AC75:AC771)</f>
+        <v>0</v>
+      </c>
+      <c r="AD63" s="59">
+        <f>SUMIF($B$75:$B$765,"LOE",AD75:AD771)</f>
+        <v>0</v>
+      </c>
+      <c r="AE63" s="59">
+        <f>SUMIF($B$75:$B$765,"LOE",AE75:AE771)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:31" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="58"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="59">
+        <f t="shared" ref="E64:W64" si="35">SUMIF($B$75:$B$765,"70",E75:E772)+SUMIF($B$75:$B$765,"170",E75:E772)+SUMIF($B$75:$B$765,"74",E75:E772)+SUMIF($B$75:$B$765,"174",E75:E772)+SUMIF($B$75:$B$765,"172",E75:E772)+SUMIF($B$75:$B$765,"72",E75:E772)+SUMIF($B$75:$B$765,"76",E75:E772)+SUMIF($B$75:$B$765,"176",E75:E772)+SUMIF($B$75:$B$765,"178",E75:E772)+SUMIF($B$75:$B$765,"78",E75:E772)+SUMIF($B$75:$B$765,"177",E75:E772)+SUMIF($B$75:$B$765,"77",E75:E772)</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="G59" s="59">
+      <c r="G64" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="H59" s="59">
+      <c r="H64" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I59" s="59">
+      <c r="I64" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J59" s="59">
+      <c r="J64" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="K59" s="59">
+      <c r="K64" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="L59" s="59">
+      <c r="L64" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="M59" s="59">
+      <c r="M64" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N59" s="59">
+      <c r="N64" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="O59" s="59">
+      <c r="O64" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="P59" s="59">
+      <c r="P64" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Q59" s="59">
+      <c r="Q64" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="R59" s="59">
+      <c r="R64" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="S59" s="59">
+      <c r="S64" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="T59" s="59">
+      <c r="T64" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="U59" s="59">
+      <c r="U64" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="V59" s="59">
+      <c r="V64" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="W59" s="59">
+      <c r="W64" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="X59" s="59">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:24" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="58"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="59">
-        <f t="shared" ref="E60:X60" si="36">SUMIF($B$75:$B$765,"LRE",E75:E768)</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="59">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="59">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="59">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="59">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="59">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="59">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="59">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="59">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="N60" s="59">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="O60" s="59">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="P60" s="59">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="59">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="R60" s="59">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="S60" s="59">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="T60" s="59">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="U60" s="59">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="V60" s="59">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="W60" s="59">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="X60" s="59">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:24" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="58"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="59">
-        <f t="shared" ref="E61:X61" si="37">SUMIF($B$75:$B$765,"LR",E75:E769)</f>
-        <v>0</v>
-      </c>
-      <c r="F61" s="59">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="59">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="59">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="59">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="59">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="59">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="L61" s="59">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="M61" s="59">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N61" s="59">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="59">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="P61" s="59">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="Q61" s="59">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="R61" s="59">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="S61" s="59">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="T61" s="59">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="U61" s="59">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="V61" s="59">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="W61" s="59">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="X61" s="59">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:24" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="58"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="59">
-        <f t="shared" ref="E62:X62" si="38">SUMIF($B$75:$B$765,"LO",E75:E770)</f>
-        <v>0</v>
-      </c>
-      <c r="F62" s="59">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="59">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="59">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="59">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="59">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="59">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="59">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="59">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="N62" s="59">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O62" s="59">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="P62" s="59">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="Q62" s="59">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="R62" s="59">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="S62" s="59">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="T62" s="59">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="U62" s="59">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="V62" s="59">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="W62" s="59">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="X62" s="59">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:24" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="58"/>
-      <c r="C63" s="93"/>
-      <c r="D63" s="93"/>
-      <c r="E63" s="59">
-        <f t="shared" ref="E63:X63" si="39">SUMIF($B$75:$B$765,"LOE",E75:E771)</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="59">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="59">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="59">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="59">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="59">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="59">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="L63" s="59">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="M63" s="59">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="N63" s="59">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="O63" s="59">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="59">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="Q63" s="59">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="R63" s="59">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="S63" s="59">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="T63" s="59">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="U63" s="59">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="V63" s="59">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="W63" s="59">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="X63" s="59">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:24" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="58"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="59">
-        <f t="shared" ref="E64:X64" si="40">SUMIF($B$75:$B$765,"70",E75:E772)+SUMIF($B$75:$B$765,"170",E75:E772)+SUMIF($B$75:$B$765,"74",E75:E772)+SUMIF($B$75:$B$765,"174",E75:E772)+SUMIF($B$75:$B$765,"172",E75:E772)+SUMIF($B$75:$B$765,"72",E75:E772)+SUMIF($B$75:$B$765,"76",E75:E772)+SUMIF($B$75:$B$765,"176",E75:E772)+SUMIF($B$75:$B$765,"178",E75:E772)+SUMIF($B$75:$B$765,"78",E75:E772)+SUMIF($B$75:$B$765,"177",E75:E772)+SUMIF($B$75:$B$765,"77",E75:E772)</f>
-        <v>0</v>
-      </c>
-      <c r="F64" s="59">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="59">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="59">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="59">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="59">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="59">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="59">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="59">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="N64" s="59">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="O64" s="59">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="59">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="Q64" s="59">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="R64" s="59">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="S64" s="59">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="T64" s="59">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="U64" s="59">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="V64" s="59">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="W64" s="59">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
       <c r="X64" s="59">
-        <f t="shared" si="40"/>
+        <f>SUMIF($B$75:$B$765,"70",X75:X772)+SUMIF($B$75:$B$765,"170",X75:X772)+SUMIF($B$75:$B$765,"74",X75:X772)+SUMIF($B$75:$B$765,"174",X75:X772)+SUMIF($B$75:$B$765,"172",X75:X772)+SUMIF($B$75:$B$765,"72",X75:X772)+SUMIF($B$75:$B$765,"76",X75:X772)+SUMIF($B$75:$B$765,"176",X75:X772)+SUMIF($B$75:$B$765,"178",X75:X772)+SUMIF($B$75:$B$765,"78",X75:X772)+SUMIF($B$75:$B$765,"177",X75:X772)+SUMIF($B$75:$B$765,"77",X75:X772)</f>
+        <v>0</v>
+      </c>
+      <c r="Y64" s="59">
+        <f>SUMIF($B$75:$B$765,"70",Y75:Y772)+SUMIF($B$75:$B$765,"170",Y75:Y772)+SUMIF($B$75:$B$765,"74",Y75:Y772)+SUMIF($B$75:$B$765,"174",Y75:Y772)+SUMIF($B$75:$B$765,"172",Y75:Y772)+SUMIF($B$75:$B$765,"72",Y75:Y772)+SUMIF($B$75:$B$765,"76",Y75:Y772)+SUMIF($B$75:$B$765,"176",Y75:Y772)+SUMIF($B$75:$B$765,"178",Y75:Y772)+SUMIF($B$75:$B$765,"78",Y75:Y772)+SUMIF($B$75:$B$765,"177",Y75:Y772)+SUMIF($B$75:$B$765,"77",Y75:Y772)</f>
+        <v>0</v>
+      </c>
+      <c r="Z64" s="59">
+        <f>SUMIF($B$75:$B$765,"70",Z75:Z772)+SUMIF($B$75:$B$765,"170",Z75:Z772)+SUMIF($B$75:$B$765,"74",Z75:Z772)+SUMIF($B$75:$B$765,"174",Z75:Z772)+SUMIF($B$75:$B$765,"172",Z75:Z772)+SUMIF($B$75:$B$765,"72",Z75:Z772)+SUMIF($B$75:$B$765,"76",Z75:Z772)+SUMIF($B$75:$B$765,"176",Z75:Z772)+SUMIF($B$75:$B$765,"178",Z75:Z772)+SUMIF($B$75:$B$765,"78",Z75:Z772)+SUMIF($B$75:$B$765,"177",Z75:Z772)+SUMIF($B$75:$B$765,"77",Z75:Z772)</f>
+        <v>0</v>
+      </c>
+      <c r="AA64" s="59">
+        <f>SUMIF($B$75:$B$765,"70",AA75:AA772)+SUMIF($B$75:$B$765,"170",AA75:AA772)+SUMIF($B$75:$B$765,"74",AA75:AA772)+SUMIF($B$75:$B$765,"174",AA75:AA772)+SUMIF($B$75:$B$765,"172",AA75:AA772)+SUMIF($B$75:$B$765,"72",AA75:AA772)+SUMIF($B$75:$B$765,"76",AA75:AA772)+SUMIF($B$75:$B$765,"176",AA75:AA772)+SUMIF($B$75:$B$765,"178",AA75:AA772)+SUMIF($B$75:$B$765,"78",AA75:AA772)+SUMIF($B$75:$B$765,"177",AA75:AA772)+SUMIF($B$75:$B$765,"77",AA75:AA772)</f>
+        <v>0</v>
+      </c>
+      <c r="AB64" s="59">
+        <f>SUMIF($B$75:$B$765,"70",AB75:AB772)+SUMIF($B$75:$B$765,"170",AB75:AB772)+SUMIF($B$75:$B$765,"74",AB75:AB772)+SUMIF($B$75:$B$765,"174",AB75:AB772)+SUMIF($B$75:$B$765,"172",AB75:AB772)+SUMIF($B$75:$B$765,"72",AB75:AB772)+SUMIF($B$75:$B$765,"76",AB75:AB772)+SUMIF($B$75:$B$765,"176",AB75:AB772)+SUMIF($B$75:$B$765,"178",AB75:AB772)+SUMIF($B$75:$B$765,"78",AB75:AB772)+SUMIF($B$75:$B$765,"177",AB75:AB772)+SUMIF($B$75:$B$765,"77",AB75:AB772)</f>
+        <v>0</v>
+      </c>
+      <c r="AC64" s="59">
+        <f>SUMIF($B$75:$B$765,"70",AC75:AC772)+SUMIF($B$75:$B$765,"170",AC75:AC772)+SUMIF($B$75:$B$765,"74",AC75:AC772)+SUMIF($B$75:$B$765,"174",AC75:AC772)+SUMIF($B$75:$B$765,"172",AC75:AC772)+SUMIF($B$75:$B$765,"72",AC75:AC772)+SUMIF($B$75:$B$765,"76",AC75:AC772)+SUMIF($B$75:$B$765,"176",AC75:AC772)+SUMIF($B$75:$B$765,"178",AC75:AC772)+SUMIF($B$75:$B$765,"78",AC75:AC772)+SUMIF($B$75:$B$765,"177",AC75:AC772)+SUMIF($B$75:$B$765,"77",AC75:AC772)</f>
+        <v>0</v>
+      </c>
+      <c r="AD64" s="59">
+        <f>SUMIF($B$75:$B$765,"70",AD75:AD772)+SUMIF($B$75:$B$765,"170",AD75:AD772)+SUMIF($B$75:$B$765,"74",AD75:AD772)+SUMIF($B$75:$B$765,"174",AD75:AD772)+SUMIF($B$75:$B$765,"172",AD75:AD772)+SUMIF($B$75:$B$765,"72",AD75:AD772)+SUMIF($B$75:$B$765,"76",AD75:AD772)+SUMIF($B$75:$B$765,"176",AD75:AD772)+SUMIF($B$75:$B$765,"178",AD75:AD772)+SUMIF($B$75:$B$765,"78",AD75:AD772)+SUMIF($B$75:$B$765,"177",AD75:AD772)+SUMIF($B$75:$B$765,"77",AD75:AD772)</f>
+        <v>0</v>
+      </c>
+      <c r="AE64" s="59">
+        <f>SUMIF($B$75:$B$765,"70",AE75:AE772)+SUMIF($B$75:$B$765,"170",AE75:AE772)+SUMIF($B$75:$B$765,"74",AE75:AE772)+SUMIF($B$75:$B$765,"174",AE75:AE772)+SUMIF($B$75:$B$765,"172",AE75:AE772)+SUMIF($B$75:$B$765,"72",AE75:AE772)+SUMIF($B$75:$B$765,"76",AE75:AE772)+SUMIF($B$75:$B$765,"176",AE75:AE772)+SUMIF($B$75:$B$765,"178",AE75:AE772)+SUMIF($B$75:$B$765,"78",AE75:AE772)+SUMIF($B$75:$B$765,"177",AE75:AE772)+SUMIF($B$75:$B$765,"77",AE75:AE772)</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="60"/>
-      <c r="C65" s="98"/>
-      <c r="D65" s="98"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
       <c r="E65" s="61"/>
       <c r="F65" s="61"/>
       <c r="G65" s="61"/>
@@ -5013,599 +5209,802 @@
       <c r="V65" s="61"/>
       <c r="W65" s="61"/>
       <c r="X65" s="61"/>
+      <c r="Y65" s="61"/>
+      <c r="Z65" s="61"/>
+      <c r="AA65" s="61"/>
+      <c r="AB65" s="61"/>
+      <c r="AC65" s="61"/>
+      <c r="AD65" s="61"/>
+      <c r="AE65" s="61"/>
     </row>
     <row r="66" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="60"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="93"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
       <c r="E66" s="59">
-        <f t="shared" ref="E66:X66" si="41">SUMIF($B$75:$B$765,"521",E75:E783)+SUMIF($B$75:$B$765,"921",E74:E774)</f>
+        <f t="shared" ref="E66:W66" si="36">SUMIF($B$75:$B$765,"521",E75:E783)+SUMIF($B$75:$B$765,"921",E74:E774)</f>
         <v>0</v>
       </c>
       <c r="F66" s="59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G66" s="59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="H66" s="59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I66" s="59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J66" s="59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K66" s="59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L66" s="59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M66" s="59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N66" s="59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O66" s="59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P66" s="59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q66" s="59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R66" s="59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S66" s="59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T66" s="59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U66" s="59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V66" s="59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W66" s="59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X66" s="59">
-        <f t="shared" si="41"/>
+        <f>SUMIF($B$75:$B$765,"521",X75:X783)+SUMIF($B$75:$B$765,"921",X74:X774)</f>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="59">
+        <f>SUMIF($B$75:$B$765,"521",Y75:Y783)+SUMIF($B$75:$B$765,"921",Y74:Y774)</f>
+        <v>0</v>
+      </c>
+      <c r="Z66" s="59">
+        <f>SUMIF($B$75:$B$765,"521",Z75:Z783)+SUMIF($B$75:$B$765,"921",Z74:Z774)</f>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="59">
+        <f>SUMIF($B$75:$B$765,"521",AA75:AA783)+SUMIF($B$75:$B$765,"921",AA74:AA774)</f>
+        <v>0</v>
+      </c>
+      <c r="AB66" s="59">
+        <f>SUMIF($B$75:$B$765,"521",AB75:AB783)+SUMIF($B$75:$B$765,"921",AB74:AB774)</f>
+        <v>0</v>
+      </c>
+      <c r="AC66" s="59">
+        <f>SUMIF($B$75:$B$765,"521",AC75:AC783)+SUMIF($B$75:$B$765,"921",AC74:AC774)</f>
+        <v>0</v>
+      </c>
+      <c r="AD66" s="59">
+        <f>SUMIF($B$75:$B$765,"521",AD75:AD783)+SUMIF($B$75:$B$765,"921",AD74:AD774)</f>
+        <v>0</v>
+      </c>
+      <c r="AE66" s="59">
+        <f>SUMIF($B$75:$B$765,"521",AE75:AE783)+SUMIF($B$75:$B$765,"921",AE74:AE774)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="60"/>
-      <c r="C67" s="93"/>
-      <c r="D67" s="93"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="68"/>
       <c r="E67" s="59">
-        <f t="shared" ref="E67:X67" si="42">SUMIF($B$75:$B$765,"522",E75:E775)+SUMIF($B$75:$B$765,"922",E75:E775)</f>
+        <f t="shared" ref="E67:W67" si="37">SUMIF($B$75:$B$765,"522",E75:E775)+SUMIF($B$75:$B$765,"922",E75:E775)</f>
         <v>0</v>
       </c>
       <c r="F67" s="59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="G67" s="59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H67" s="59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="I67" s="59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J67" s="59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K67" s="59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="L67" s="59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M67" s="59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N67" s="59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O67" s="59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="P67" s="59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Q67" s="59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="R67" s="59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="S67" s="59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="T67" s="59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U67" s="59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V67" s="59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W67" s="59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="X67" s="59">
-        <f t="shared" si="42"/>
+        <f>SUMIF($B$75:$B$765,"522",X75:X775)+SUMIF($B$75:$B$765,"922",X75:X775)</f>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="59">
+        <f>SUMIF($B$75:$B$765,"522",Y75:Y775)+SUMIF($B$75:$B$765,"922",Y75:Y775)</f>
+        <v>0</v>
+      </c>
+      <c r="Z67" s="59">
+        <f>SUMIF($B$75:$B$765,"522",Z75:Z775)+SUMIF($B$75:$B$765,"922",Z75:Z775)</f>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="59">
+        <f>SUMIF($B$75:$B$765,"522",AA75:AA775)+SUMIF($B$75:$B$765,"922",AA75:AA775)</f>
+        <v>0</v>
+      </c>
+      <c r="AB67" s="59">
+        <f>SUMIF($B$75:$B$765,"522",AB75:AB775)+SUMIF($B$75:$B$765,"922",AB75:AB775)</f>
+        <v>0</v>
+      </c>
+      <c r="AC67" s="59">
+        <f>SUMIF($B$75:$B$765,"522",AC75:AC775)+SUMIF($B$75:$B$765,"922",AC75:AC775)</f>
+        <v>0</v>
+      </c>
+      <c r="AD67" s="59">
+        <f>SUMIF($B$75:$B$765,"522",AD75:AD775)+SUMIF($B$75:$B$765,"922",AD75:AD775)</f>
+        <v>0</v>
+      </c>
+      <c r="AE67" s="59">
+        <f>SUMIF($B$75:$B$765,"522",AE75:AE775)+SUMIF($B$75:$B$765,"922",AE75:AE775)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="60"/>
-      <c r="C68" s="93"/>
-      <c r="D68" s="93"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
       <c r="E68" s="59">
-        <f t="shared" ref="E68:X68" si="43">SUMIF($B$75:$B$765,"LRE",E75:E784)</f>
+        <f t="shared" ref="E68:W68" si="38">SUMIF($B$75:$B$765,"LRE",E75:E784)</f>
         <v>0</v>
       </c>
       <c r="F68" s="59">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G68" s="59">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="H68" s="59">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I68" s="59">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J68" s="59">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K68" s="59">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L68" s="59">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M68" s="59">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N68" s="59">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O68" s="59">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P68" s="59">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Q68" s="59">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R68" s="59">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="S68" s="59">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="T68" s="59">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="U68" s="59">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V68" s="59">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W68" s="59">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X68" s="59">
-        <f t="shared" si="43"/>
+        <f>SUMIF($B$75:$B$765,"LRE",X75:X784)</f>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="59">
+        <f>SUMIF($B$75:$B$765,"LRE",Y75:Y784)</f>
+        <v>0</v>
+      </c>
+      <c r="Z68" s="59">
+        <f>SUMIF($B$75:$B$765,"LRE",Z75:Z784)</f>
+        <v>0</v>
+      </c>
+      <c r="AA68" s="59">
+        <f>SUMIF($B$75:$B$765,"LRE",AA75:AA784)</f>
+        <v>0</v>
+      </c>
+      <c r="AB68" s="59">
+        <f>SUMIF($B$75:$B$765,"LRE",AB75:AB784)</f>
+        <v>0</v>
+      </c>
+      <c r="AC68" s="59">
+        <f>SUMIF($B$75:$B$765,"LRE",AC75:AC784)</f>
+        <v>0</v>
+      </c>
+      <c r="AD68" s="59">
+        <f>SUMIF($B$75:$B$765,"LRE",AD75:AD784)</f>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="59">
+        <f>SUMIF($B$75:$B$765,"LRE",AE75:AE784)</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="60"/>
-      <c r="C69" s="93"/>
-      <c r="D69" s="93"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="68"/>
       <c r="E69" s="59">
-        <f t="shared" ref="E69:X69" si="44">SUMIF($B$75:$B$765,"LR",E75:E785)</f>
+        <f t="shared" ref="E69:W69" si="39">SUMIF($B$75:$B$765,"LR",E75:E785)</f>
         <v>0</v>
       </c>
       <c r="F69" s="59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G69" s="59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H69" s="59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I69" s="59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J69" s="59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K69" s="59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L69" s="59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M69" s="59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N69" s="59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O69" s="59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="P69" s="59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q69" s="59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="R69" s="59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S69" s="59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T69" s="59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="U69" s="59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="V69" s="59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W69" s="59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X69" s="59">
-        <f t="shared" si="44"/>
+        <f>SUMIF($B$75:$B$765,"LR",X75:X785)</f>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="59">
+        <f>SUMIF($B$75:$B$765,"LR",Y75:Y785)</f>
+        <v>0</v>
+      </c>
+      <c r="Z69" s="59">
+        <f>SUMIF($B$75:$B$765,"LR",Z75:Z785)</f>
+        <v>0</v>
+      </c>
+      <c r="AA69" s="59">
+        <f>SUMIF($B$75:$B$765,"LR",AA75:AA785)</f>
+        <v>0</v>
+      </c>
+      <c r="AB69" s="59">
+        <f>SUMIF($B$75:$B$765,"LR",AB75:AB785)</f>
+        <v>0</v>
+      </c>
+      <c r="AC69" s="59">
+        <f>SUMIF($B$75:$B$765,"LR",AC75:AC785)</f>
+        <v>0</v>
+      </c>
+      <c r="AD69" s="59">
+        <f>SUMIF($B$75:$B$765,"LR",AD75:AD785)</f>
+        <v>0</v>
+      </c>
+      <c r="AE69" s="59">
+        <f>SUMIF($B$75:$B$765,"LR",AE75:AE785)</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="60"/>
-      <c r="C70" s="93"/>
-      <c r="D70" s="93"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="68"/>
       <c r="E70" s="59">
-        <f t="shared" ref="E70:X70" si="45">SUMIF($B$75:$B$765,"LO",E75:E778)</f>
+        <f t="shared" ref="E70:W70" si="40">SUMIF($B$75:$B$765,"LO",E75:E778)</f>
         <v>0</v>
       </c>
       <c r="F70" s="59">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="G70" s="59">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H70" s="59">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="I70" s="59">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J70" s="59">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="K70" s="59">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="L70" s="59">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="M70" s="59">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N70" s="59">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O70" s="59">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="P70" s="59">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q70" s="59">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R70" s="59">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="S70" s="59">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="T70" s="59">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="U70" s="59">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V70" s="59">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W70" s="59">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X70" s="59">
-        <f t="shared" si="45"/>
+        <f>SUMIF($B$75:$B$765,"LO",X75:X778)</f>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="59">
+        <f>SUMIF($B$75:$B$765,"LO",Y75:Y778)</f>
+        <v>0</v>
+      </c>
+      <c r="Z70" s="59">
+        <f>SUMIF($B$75:$B$765,"LO",Z75:Z778)</f>
+        <v>0</v>
+      </c>
+      <c r="AA70" s="59">
+        <f>SUMIF($B$75:$B$765,"LO",AA75:AA778)</f>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="59">
+        <f>SUMIF($B$75:$B$765,"LO",AB75:AB778)</f>
+        <v>0</v>
+      </c>
+      <c r="AC70" s="59">
+        <f>SUMIF($B$75:$B$765,"LO",AC75:AC778)</f>
+        <v>0</v>
+      </c>
+      <c r="AD70" s="59">
+        <f>SUMIF($B$75:$B$765,"LO",AD75:AD778)</f>
+        <v>0</v>
+      </c>
+      <c r="AE70" s="59">
+        <f>SUMIF($B$75:$B$765,"LO",AE75:AE778)</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="60"/>
-      <c r="C71" s="93"/>
-      <c r="D71" s="93"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
       <c r="E71" s="59">
-        <f t="shared" ref="E71:X71" si="46">SUMIF($B$75:$B$765,"LOE",E75:E779)</f>
+        <f t="shared" ref="E71:W71" si="41">SUMIF($B$75:$B$765,"LOE",E75:E779)</f>
         <v>0</v>
       </c>
       <c r="F71" s="59">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G71" s="59">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="H71" s="59">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="I71" s="59">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J71" s="59">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="K71" s="59">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L71" s="59">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M71" s="59">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N71" s="59">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O71" s="59">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="P71" s="59">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q71" s="59">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R71" s="59">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S71" s="59">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="T71" s="59">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="U71" s="59">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="V71" s="59">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W71" s="59">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="X71" s="59">
-        <f t="shared" si="46"/>
+        <f>SUMIF($B$75:$B$765,"LOE",X75:X779)</f>
+        <v>0</v>
+      </c>
+      <c r="Y71" s="59">
+        <f>SUMIF($B$75:$B$765,"LOE",Y75:Y779)</f>
+        <v>0</v>
+      </c>
+      <c r="Z71" s="59">
+        <f>SUMIF($B$75:$B$765,"LOE",Z75:Z779)</f>
+        <v>0</v>
+      </c>
+      <c r="AA71" s="59">
+        <f>SUMIF($B$75:$B$765,"LOE",AA75:AA779)</f>
+        <v>0</v>
+      </c>
+      <c r="AB71" s="59">
+        <f>SUMIF($B$75:$B$765,"LOE",AB75:AB779)</f>
+        <v>0</v>
+      </c>
+      <c r="AC71" s="59">
+        <f>SUMIF($B$75:$B$765,"LOE",AC75:AC779)</f>
+        <v>0</v>
+      </c>
+      <c r="AD71" s="59">
+        <f>SUMIF($B$75:$B$765,"LOE",AD75:AD779)</f>
+        <v>0</v>
+      </c>
+      <c r="AE71" s="59">
+        <f>SUMIF($B$75:$B$765,"LOE",AE75:AE779)</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="60"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="93"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="68"/>
       <c r="E72" s="59">
-        <f t="shared" ref="E72:X72" si="47">SUMIF($B$75:$B$765,"70",E75:E780)+SUMIF($B$75:$B$765,"170",E75:E780)+SUMIF($B$75:$B$765,"74",E75:E780)+SUMIF($B$75:$B$765,"174",E75:E780)+SUMIF($B$75:$B$765,"172",E75:E780)+SUMIF($B$75:$B$765,"72",E75:E780)+SUMIF($B$75:$B$765,"76",E75:E780)+SUMIF($B$75:$B$765,"176",E75:E780)+SUMIF($B$75:$B$765,"178",E75:E780)+SUMIF($B$75:$B$765,"78",E75:E780)+SUMIF($B$75:$B$765,"77",E75:E780)+SUMIF($B$75:$B$765,"177",E75:E780)</f>
+        <f t="shared" ref="E72:X72" si="42">SUMIF($B$75:$B$765,"70",E75:E780)+SUMIF($B$75:$B$765,"170",E75:E780)+SUMIF($B$75:$B$765,"74",E75:E780)+SUMIF($B$75:$B$765,"174",E75:E780)+SUMIF($B$75:$B$765,"172",E75:E780)+SUMIF($B$75:$B$765,"72",E75:E780)+SUMIF($B$75:$B$765,"76",E75:E780)+SUMIF($B$75:$B$765,"176",E75:E780)+SUMIF($B$75:$B$765,"178",E75:E780)+SUMIF($B$75:$B$765,"78",E75:E780)+SUMIF($B$75:$B$765,"77",E75:E780)+SUMIF($B$75:$B$765,"177",E75:E780)</f>
         <v>0</v>
       </c>
       <c r="F72" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G72" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="H72" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I72" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J72" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="K72" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="L72" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="M72" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N72" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O72" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P72" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Q72" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="R72" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="S72" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="T72" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="U72" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="V72" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="W72" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X72" s="59">
-        <f t="shared" si="47"/>
+        <f>SUMIF($B$75:$B$765,"70",X75:X780)+SUMIF($B$75:$B$765,"170",X75:X780)+SUMIF($B$75:$B$765,"74",X75:X780)+SUMIF($B$75:$B$765,"174",X75:X780)+SUMIF($B$75:$B$765,"172",X75:X780)+SUMIF($B$75:$B$765,"72",X75:X780)+SUMIF($B$75:$B$765,"76",X75:X780)+SUMIF($B$75:$B$765,"176",X75:X780)+SUMIF($B$75:$B$765,"178",X75:X780)+SUMIF($B$75:$B$765,"78",X75:X780)+SUMIF($B$75:$B$765,"77",X75:X780)+SUMIF($B$75:$B$765,"177",X75:X780)</f>
+        <v>0</v>
+      </c>
+      <c r="Y72" s="59">
+        <f>SUMIF($B$75:$B$765,"70",Y75:Y780)+SUMIF($B$75:$B$765,"170",Y75:Y780)+SUMIF($B$75:$B$765,"74",Y75:Y780)+SUMIF($B$75:$B$765,"174",Y75:Y780)+SUMIF($B$75:$B$765,"172",Y75:Y780)+SUMIF($B$75:$B$765,"72",Y75:Y780)+SUMIF($B$75:$B$765,"76",Y75:Y780)+SUMIF($B$75:$B$765,"176",Y75:Y780)+SUMIF($B$75:$B$765,"178",Y75:Y780)+SUMIF($B$75:$B$765,"78",Y75:Y780)+SUMIF($B$75:$B$765,"77",Y75:Y780)+SUMIF($B$75:$B$765,"177",Y75:Y780)</f>
+        <v>0</v>
+      </c>
+      <c r="Z72" s="59">
+        <f>SUMIF($B$75:$B$765,"70",Z75:Z780)+SUMIF($B$75:$B$765,"170",Z75:Z780)+SUMIF($B$75:$B$765,"74",Z75:Z780)+SUMIF($B$75:$B$765,"174",Z75:Z780)+SUMIF($B$75:$B$765,"172",Z75:Z780)+SUMIF($B$75:$B$765,"72",Z75:Z780)+SUMIF($B$75:$B$765,"76",Z75:Z780)+SUMIF($B$75:$B$765,"176",Z75:Z780)+SUMIF($B$75:$B$765,"178",Z75:Z780)+SUMIF($B$75:$B$765,"78",Z75:Z780)+SUMIF($B$75:$B$765,"77",Z75:Z780)+SUMIF($B$75:$B$765,"177",Z75:Z780)</f>
+        <v>0</v>
+      </c>
+      <c r="AA72" s="59">
+        <f>SUMIF($B$75:$B$765,"70",AA75:AA780)+SUMIF($B$75:$B$765,"170",AA75:AA780)+SUMIF($B$75:$B$765,"74",AA75:AA780)+SUMIF($B$75:$B$765,"174",AA75:AA780)+SUMIF($B$75:$B$765,"172",AA75:AA780)+SUMIF($B$75:$B$765,"72",AA75:AA780)+SUMIF($B$75:$B$765,"76",AA75:AA780)+SUMIF($B$75:$B$765,"176",AA75:AA780)+SUMIF($B$75:$B$765,"178",AA75:AA780)+SUMIF($B$75:$B$765,"78",AA75:AA780)+SUMIF($B$75:$B$765,"77",AA75:AA780)+SUMIF($B$75:$B$765,"177",AA75:AA780)</f>
+        <v>0</v>
+      </c>
+      <c r="AB72" s="59">
+        <f>SUMIF($B$75:$B$765,"70",AB75:AB780)+SUMIF($B$75:$B$765,"170",AB75:AB780)+SUMIF($B$75:$B$765,"74",AB75:AB780)+SUMIF($B$75:$B$765,"174",AB75:AB780)+SUMIF($B$75:$B$765,"172",AB75:AB780)+SUMIF($B$75:$B$765,"72",AB75:AB780)+SUMIF($B$75:$B$765,"76",AB75:AB780)+SUMIF($B$75:$B$765,"176",AB75:AB780)+SUMIF($B$75:$B$765,"178",AB75:AB780)+SUMIF($B$75:$B$765,"78",AB75:AB780)+SUMIF($B$75:$B$765,"77",AB75:AB780)+SUMIF($B$75:$B$765,"177",AB75:AB780)</f>
+        <v>0</v>
+      </c>
+      <c r="AC72" s="59">
+        <f>SUMIF($B$75:$B$765,"70",AC75:AC780)+SUMIF($B$75:$B$765,"170",AC75:AC780)+SUMIF($B$75:$B$765,"74",AC75:AC780)+SUMIF($B$75:$B$765,"174",AC75:AC780)+SUMIF($B$75:$B$765,"172",AC75:AC780)+SUMIF($B$75:$B$765,"72",AC75:AC780)+SUMIF($B$75:$B$765,"76",AC75:AC780)+SUMIF($B$75:$B$765,"176",AC75:AC780)+SUMIF($B$75:$B$765,"178",AC75:AC780)+SUMIF($B$75:$B$765,"78",AC75:AC780)+SUMIF($B$75:$B$765,"77",AC75:AC780)+SUMIF($B$75:$B$765,"177",AC75:AC780)</f>
+        <v>0</v>
+      </c>
+      <c r="AD72" s="59">
+        <f>SUMIF($B$75:$B$765,"70",AD75:AD780)+SUMIF($B$75:$B$765,"170",AD75:AD780)+SUMIF($B$75:$B$765,"74",AD75:AD780)+SUMIF($B$75:$B$765,"174",AD75:AD780)+SUMIF($B$75:$B$765,"172",AD75:AD780)+SUMIF($B$75:$B$765,"72",AD75:AD780)+SUMIF($B$75:$B$765,"76",AD75:AD780)+SUMIF($B$75:$B$765,"176",AD75:AD780)+SUMIF($B$75:$B$765,"178",AD75:AD780)+SUMIF($B$75:$B$765,"78",AD75:AD780)+SUMIF($B$75:$B$765,"77",AD75:AD780)+SUMIF($B$75:$B$765,"177",AD75:AD780)</f>
+        <v>0</v>
+      </c>
+      <c r="AE72" s="59">
+        <f>SUMIF($B$75:$B$765,"70",AE75:AE780)+SUMIF($B$75:$B$765,"170",AE75:AE780)+SUMIF($B$75:$B$765,"74",AE75:AE780)+SUMIF($B$75:$B$765,"174",AE75:AE780)+SUMIF($B$75:$B$765,"172",AE75:AE780)+SUMIF($B$75:$B$765,"72",AE75:AE780)+SUMIF($B$75:$B$765,"76",AE75:AE780)+SUMIF($B$75:$B$765,"176",AE75:AE780)+SUMIF($B$75:$B$765,"178",AE75:AE780)+SUMIF($B$75:$B$765,"78",AE75:AE780)+SUMIF($B$75:$B$765,"77",AE75:AE780)+SUMIF($B$75:$B$765,"177",AE75:AE780)</f>
         <v>0</v>
       </c>
     </row>
@@ -5615,8 +6014,8 @@
     </row>
     <row r="75" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="63"/>
-      <c r="C75" s="97"/>
-      <c r="D75" s="97"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
       <c r="E75" s="64"/>
       <c r="F75" s="64"/>
       <c r="G75" s="64"/>
@@ -5651,8 +6050,8 @@
     </row>
     <row r="76" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="63"/>
-      <c r="C76" s="97"/>
-      <c r="D76" s="97"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="67"/>
       <c r="E76" s="65"/>
       <c r="F76" s="65"/>
       <c r="G76" s="65"/>
@@ -5687,8 +6086,8 @@
     </row>
     <row r="77" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="63"/>
-      <c r="C77" s="97"/>
-      <c r="D77" s="97"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="67"/>
       <c r="E77" s="64"/>
       <c r="F77" s="64"/>
       <c r="G77" s="64"/>
@@ -5723,8 +6122,8 @@
     </row>
     <row r="78" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="63"/>
-      <c r="C78" s="97"/>
-      <c r="D78" s="97"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="67"/>
       <c r="E78" s="65"/>
       <c r="F78" s="65"/>
       <c r="G78" s="65"/>
@@ -5759,8 +6158,8 @@
     </row>
     <row r="79" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="63"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="97"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="67"/>
       <c r="E79" s="64"/>
       <c r="F79" s="64"/>
       <c r="G79" s="64"/>
@@ -5795,8 +6194,8 @@
     </row>
     <row r="80" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="63"/>
-      <c r="C80" s="97"/>
-      <c r="D80" s="97"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="67"/>
       <c r="E80" s="65"/>
       <c r="F80" s="65"/>
       <c r="G80" s="65"/>
@@ -5831,8 +6230,8 @@
     </row>
     <row r="81" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="63"/>
-      <c r="C81" s="97"/>
-      <c r="D81" s="97"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="67"/>
       <c r="E81" s="64"/>
       <c r="F81" s="64"/>
       <c r="G81" s="64"/>
@@ -5870,8 +6269,8 @@
     </row>
     <row r="83" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="63"/>
-      <c r="C83" s="97"/>
-      <c r="D83" s="97"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
       <c r="E83" s="64"/>
       <c r="F83" s="64"/>
       <c r="G83" s="64"/>
@@ -5906,8 +6305,8 @@
     </row>
     <row r="84" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="63"/>
-      <c r="C84" s="97"/>
-      <c r="D84" s="97"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="67"/>
       <c r="E84" s="65"/>
       <c r="F84" s="65"/>
       <c r="G84" s="65"/>
@@ -5942,8 +6341,8 @@
     </row>
     <row r="85" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="63"/>
-      <c r="C85" s="97"/>
-      <c r="D85" s="97"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="67"/>
       <c r="E85" s="64"/>
       <c r="F85" s="64"/>
       <c r="G85" s="64"/>
@@ -5978,8 +6377,8 @@
     </row>
     <row r="86" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="63"/>
-      <c r="C86" s="97"/>
-      <c r="D86" s="97"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="67"/>
       <c r="E86" s="65"/>
       <c r="F86" s="65"/>
       <c r="G86" s="65"/>
@@ -6014,8 +6413,8 @@
     </row>
     <row r="87" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="63"/>
-      <c r="C87" s="97"/>
-      <c r="D87" s="97"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="67"/>
       <c r="E87" s="64"/>
       <c r="F87" s="64"/>
       <c r="G87" s="64"/>
@@ -6050,8 +6449,8 @@
     </row>
     <row r="88" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="63"/>
-      <c r="C88" s="97"/>
-      <c r="D88" s="97"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="67"/>
       <c r="E88" s="65"/>
       <c r="F88" s="65"/>
       <c r="G88" s="65"/>
@@ -6086,8 +6485,8 @@
     </row>
     <row r="89" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="63"/>
-      <c r="C89" s="97"/>
-      <c r="D89" s="97"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="67"/>
       <c r="E89" s="64"/>
       <c r="F89" s="64"/>
       <c r="G89" s="64"/>
@@ -6125,8 +6524,8 @@
     </row>
     <row r="91" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="63"/>
-      <c r="C91" s="97"/>
-      <c r="D91" s="97"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="67"/>
       <c r="E91" s="64"/>
       <c r="F91" s="64"/>
       <c r="G91" s="64"/>
@@ -6161,8 +6560,8 @@
     </row>
     <row r="92" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="63"/>
-      <c r="C92" s="97"/>
-      <c r="D92" s="97"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="67"/>
       <c r="E92" s="65"/>
       <c r="F92" s="65"/>
       <c r="G92" s="65"/>
@@ -6197,8 +6596,8 @@
     </row>
     <row r="93" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="63"/>
-      <c r="C93" s="97"/>
-      <c r="D93" s="97"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="67"/>
       <c r="E93" s="64"/>
       <c r="F93" s="64"/>
       <c r="G93" s="64"/>
@@ -6233,8 +6632,8 @@
     </row>
     <row r="94" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="63"/>
-      <c r="C94" s="97"/>
-      <c r="D94" s="97"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="67"/>
       <c r="E94" s="65"/>
       <c r="F94" s="65"/>
       <c r="G94" s="65"/>
@@ -6272,8 +6671,8 @@
     </row>
     <row r="96" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="63"/>
-      <c r="C96" s="97"/>
-      <c r="D96" s="97"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="67"/>
       <c r="E96" s="64"/>
       <c r="F96" s="64"/>
       <c r="G96" s="64"/>
@@ -6311,8 +6710,8 @@
     </row>
     <row r="98" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="63"/>
-      <c r="C98" s="97"/>
-      <c r="D98" s="97"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="67"/>
       <c r="E98" s="64"/>
       <c r="F98" s="64"/>
       <c r="G98" s="64"/>
@@ -6347,8 +6746,8 @@
     </row>
     <row r="99" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="63"/>
-      <c r="C99" s="97"/>
-      <c r="D99" s="97"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="67"/>
       <c r="E99" s="65"/>
       <c r="F99" s="65"/>
       <c r="G99" s="65"/>
@@ -6386,8 +6785,8 @@
     </row>
     <row r="101" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="63"/>
-      <c r="C101" s="97"/>
-      <c r="D101" s="97"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="67"/>
       <c r="E101" s="64"/>
       <c r="F101" s="64"/>
       <c r="G101" s="64"/>
@@ -6422,8 +6821,8 @@
     </row>
     <row r="102" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="63"/>
-      <c r="C102" s="97"/>
-      <c r="D102" s="97"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="67"/>
       <c r="E102" s="65"/>
       <c r="F102" s="65"/>
       <c r="G102" s="65"/>
@@ -6458,8 +6857,8 @@
     </row>
     <row r="103" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="63"/>
-      <c r="C103" s="97"/>
-      <c r="D103" s="97"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="67"/>
       <c r="E103" s="64"/>
       <c r="F103" s="64"/>
       <c r="G103" s="64"/>
@@ -6494,8 +6893,8 @@
     </row>
     <row r="104" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="63"/>
-      <c r="C104" s="97"/>
-      <c r="D104" s="97"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="67"/>
       <c r="E104" s="65"/>
       <c r="F104" s="65"/>
       <c r="G104" s="65"/>
@@ -6530,8 +6929,8 @@
     </row>
     <row r="105" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="63"/>
-      <c r="C105" s="97"/>
-      <c r="D105" s="97"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="67"/>
       <c r="E105" s="64"/>
       <c r="F105" s="64"/>
       <c r="G105" s="64"/>
@@ -6566,8 +6965,8 @@
     </row>
     <row r="106" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="63"/>
-      <c r="C106" s="97"/>
-      <c r="D106" s="97"/>
+      <c r="C106" s="67"/>
+      <c r="D106" s="67"/>
       <c r="E106" s="65"/>
       <c r="F106" s="65"/>
       <c r="G106" s="65"/>
@@ -6602,8 +7001,8 @@
     </row>
     <row r="107" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="63"/>
-      <c r="C107" s="97"/>
-      <c r="D107" s="97"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="67"/>
       <c r="E107" s="64"/>
       <c r="F107" s="64"/>
       <c r="G107" s="64"/>
@@ -6638,8 +7037,8 @@
     </row>
     <row r="108" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="63"/>
-      <c r="C108" s="97"/>
-      <c r="D108" s="97"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="67"/>
       <c r="E108" s="65"/>
       <c r="F108" s="65"/>
       <c r="G108" s="65"/>
@@ -6674,8 +7073,8 @@
     </row>
     <row r="109" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="63"/>
-      <c r="C109" s="97"/>
-      <c r="D109" s="97"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="67"/>
       <c r="E109" s="64"/>
       <c r="F109" s="64"/>
       <c r="G109" s="64"/>
@@ -6710,8 +7109,8 @@
     </row>
     <row r="110" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="63"/>
-      <c r="C110" s="97"/>
-      <c r="D110" s="97"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="67"/>
       <c r="E110" s="65"/>
       <c r="F110" s="65"/>
       <c r="G110" s="65"/>
@@ -6746,8 +7145,8 @@
     </row>
     <row r="111" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="63"/>
-      <c r="C111" s="97"/>
-      <c r="D111" s="97"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="67"/>
       <c r="E111" s="64"/>
       <c r="F111" s="64"/>
       <c r="G111" s="64"/>
@@ -6782,8 +7181,8 @@
     </row>
     <row r="112" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="63"/>
-      <c r="C112" s="97"/>
-      <c r="D112" s="97"/>
+      <c r="C112" s="67"/>
+      <c r="D112" s="67"/>
       <c r="E112" s="65"/>
       <c r="F112" s="65"/>
       <c r="G112" s="65"/>
@@ -6818,8 +7217,8 @@
     </row>
     <row r="113" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="63"/>
-      <c r="C113" s="97"/>
-      <c r="D113" s="97"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="67"/>
       <c r="E113" s="64"/>
       <c r="F113" s="64"/>
       <c r="G113" s="64"/>
@@ -6854,8 +7253,8 @@
     </row>
     <row r="114" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="63"/>
-      <c r="C114" s="97"/>
-      <c r="D114" s="97"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="67"/>
       <c r="E114" s="65"/>
       <c r="F114" s="65"/>
       <c r="G114" s="65"/>
@@ -6890,8 +7289,8 @@
     </row>
     <row r="115" spans="2:35" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="63"/>
-      <c r="C115" s="97"/>
-      <c r="D115" s="97"/>
+      <c r="C115" s="67"/>
+      <c r="D115" s="67"/>
       <c r="E115" s="64"/>
       <c r="F115" s="64"/>
       <c r="G115" s="64"/>
@@ -6931,8 +7330,8 @@
     <row r="118" spans="2:35" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="119" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="63"/>
-      <c r="C119" s="97"/>
-      <c r="D119" s="97"/>
+      <c r="C119" s="67"/>
+      <c r="D119" s="67"/>
       <c r="E119" s="64"/>
       <c r="F119" s="64"/>
       <c r="G119" s="64"/>
@@ -6967,8 +7366,8 @@
     </row>
     <row r="120" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="63"/>
-      <c r="C120" s="97"/>
-      <c r="D120" s="97"/>
+      <c r="C120" s="67"/>
+      <c r="D120" s="67"/>
       <c r="E120" s="65"/>
       <c r="F120" s="65"/>
       <c r="G120" s="65"/>
@@ -7003,8 +7402,8 @@
     </row>
     <row r="121" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="63"/>
-      <c r="C121" s="97"/>
-      <c r="D121" s="97"/>
+      <c r="C121" s="67"/>
+      <c r="D121" s="67"/>
       <c r="E121" s="64"/>
       <c r="F121" s="64"/>
       <c r="G121" s="64"/>
@@ -7039,8 +7438,8 @@
     </row>
     <row r="122" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="63"/>
-      <c r="C122" s="97"/>
-      <c r="D122" s="97"/>
+      <c r="C122" s="67"/>
+      <c r="D122" s="67"/>
       <c r="E122" s="65"/>
       <c r="F122" s="65"/>
       <c r="G122" s="65"/>
@@ -7075,8 +7474,8 @@
     </row>
     <row r="123" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="63"/>
-      <c r="C123" s="97"/>
-      <c r="D123" s="97"/>
+      <c r="C123" s="67"/>
+      <c r="D123" s="67"/>
       <c r="E123" s="64"/>
       <c r="F123" s="64"/>
       <c r="G123" s="64"/>
@@ -7111,8 +7510,8 @@
     </row>
     <row r="124" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="63"/>
-      <c r="C124" s="97"/>
-      <c r="D124" s="97"/>
+      <c r="C124" s="67"/>
+      <c r="D124" s="67"/>
       <c r="E124" s="65"/>
       <c r="F124" s="65"/>
       <c r="G124" s="65"/>
@@ -7147,8 +7546,8 @@
     </row>
     <row r="125" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="63"/>
-      <c r="C125" s="97"/>
-      <c r="D125" s="97"/>
+      <c r="C125" s="67"/>
+      <c r="D125" s="67"/>
       <c r="E125" s="64"/>
       <c r="F125" s="64"/>
       <c r="G125" s="64"/>
@@ -7183,8 +7582,8 @@
     </row>
     <row r="126" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="63"/>
-      <c r="C126" s="97"/>
-      <c r="D126" s="97"/>
+      <c r="C126" s="67"/>
+      <c r="D126" s="67"/>
       <c r="E126" s="65"/>
       <c r="F126" s="65"/>
       <c r="G126" s="65"/>
@@ -7219,8 +7618,8 @@
     </row>
     <row r="127" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="63"/>
-      <c r="C127" s="97"/>
-      <c r="D127" s="97"/>
+      <c r="C127" s="67"/>
+      <c r="D127" s="67"/>
       <c r="E127" s="64"/>
       <c r="F127" s="64"/>
       <c r="G127" s="64"/>
@@ -7255,8 +7654,8 @@
     </row>
     <row r="128" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="63"/>
-      <c r="C128" s="97"/>
-      <c r="D128" s="97"/>
+      <c r="C128" s="67"/>
+      <c r="D128" s="67"/>
       <c r="E128" s="65"/>
       <c r="F128" s="65"/>
       <c r="G128" s="65"/>
@@ -7291,8 +7690,8 @@
     </row>
     <row r="129" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="63"/>
-      <c r="C129" s="97"/>
-      <c r="D129" s="97"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="67"/>
       <c r="E129" s="64"/>
       <c r="F129" s="64"/>
       <c r="G129" s="64"/>
@@ -7327,8 +7726,8 @@
     </row>
     <row r="130" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="63"/>
-      <c r="C130" s="97"/>
-      <c r="D130" s="97"/>
+      <c r="C130" s="67"/>
+      <c r="D130" s="67"/>
       <c r="E130" s="65"/>
       <c r="F130" s="65"/>
       <c r="G130" s="65"/>
@@ -7363,8 +7762,8 @@
     </row>
     <row r="131" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="63"/>
-      <c r="C131" s="97"/>
-      <c r="D131" s="97"/>
+      <c r="C131" s="67"/>
+      <c r="D131" s="67"/>
       <c r="E131" s="64"/>
       <c r="F131" s="64"/>
       <c r="G131" s="64"/>
@@ -7399,8 +7798,8 @@
     </row>
     <row r="132" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="63"/>
-      <c r="C132" s="97"/>
-      <c r="D132" s="97"/>
+      <c r="C132" s="67"/>
+      <c r="D132" s="67"/>
       <c r="E132" s="65"/>
       <c r="F132" s="65"/>
       <c r="G132" s="65"/>
@@ -7435,8 +7834,8 @@
     </row>
     <row r="133" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="63"/>
-      <c r="C133" s="97"/>
-      <c r="D133" s="97"/>
+      <c r="C133" s="67"/>
+      <c r="D133" s="67"/>
       <c r="E133" s="64"/>
       <c r="F133" s="64"/>
       <c r="G133" s="64"/>
@@ -7476,8 +7875,8 @@
     <row r="136" spans="2:35" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="137" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="63"/>
-      <c r="C137" s="97"/>
-      <c r="D137" s="97"/>
+      <c r="C137" s="67"/>
+      <c r="D137" s="67"/>
       <c r="E137" s="64"/>
       <c r="F137" s="64"/>
       <c r="G137" s="64"/>
@@ -7512,8 +7911,8 @@
     </row>
     <row r="138" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="63"/>
-      <c r="C138" s="97"/>
-      <c r="D138" s="97"/>
+      <c r="C138" s="67"/>
+      <c r="D138" s="67"/>
       <c r="E138" s="65"/>
       <c r="F138" s="65"/>
       <c r="G138" s="65"/>
@@ -7548,8 +7947,8 @@
     </row>
     <row r="139" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="63"/>
-      <c r="C139" s="97"/>
-      <c r="D139" s="97"/>
+      <c r="C139" s="67"/>
+      <c r="D139" s="67"/>
       <c r="E139" s="64"/>
       <c r="F139" s="64"/>
       <c r="G139" s="64"/>
@@ -7589,8 +7988,8 @@
     <row r="142" spans="2:35" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="143" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="63"/>
-      <c r="C143" s="97"/>
-      <c r="D143" s="97"/>
+      <c r="C143" s="67"/>
+      <c r="D143" s="67"/>
       <c r="E143" s="64"/>
       <c r="F143" s="64"/>
       <c r="G143" s="64"/>
@@ -7625,8 +8024,8 @@
     </row>
     <row r="144" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="63"/>
-      <c r="C144" s="97"/>
-      <c r="D144" s="97"/>
+      <c r="C144" s="67"/>
+      <c r="D144" s="67"/>
       <c r="E144" s="65"/>
       <c r="F144" s="65"/>
       <c r="G144" s="65"/>
@@ -7661,8 +8060,8 @@
     </row>
     <row r="145" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="63"/>
-      <c r="C145" s="97"/>
-      <c r="D145" s="97"/>
+      <c r="C145" s="67"/>
+      <c r="D145" s="67"/>
       <c r="E145" s="64"/>
       <c r="F145" s="64"/>
       <c r="G145" s="64"/>
@@ -7697,8 +8096,8 @@
     </row>
     <row r="146" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="63"/>
-      <c r="C146" s="97"/>
-      <c r="D146" s="97"/>
+      <c r="C146" s="67"/>
+      <c r="D146" s="67"/>
       <c r="E146" s="65"/>
       <c r="F146" s="65"/>
       <c r="G146" s="65"/>
@@ -7733,8 +8132,8 @@
     </row>
     <row r="147" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="63"/>
-      <c r="C147" s="97"/>
-      <c r="D147" s="97"/>
+      <c r="C147" s="67"/>
+      <c r="D147" s="67"/>
       <c r="E147" s="64"/>
       <c r="F147" s="64"/>
       <c r="G147" s="64"/>
@@ -7774,8 +8173,8 @@
     <row r="150" spans="2:35" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="151" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="63"/>
-      <c r="C151" s="97"/>
-      <c r="D151" s="97"/>
+      <c r="C151" s="67"/>
+      <c r="D151" s="67"/>
       <c r="E151" s="64"/>
       <c r="F151" s="64"/>
       <c r="G151" s="64"/>
@@ -7810,8 +8209,8 @@
     </row>
     <row r="152" spans="2:35" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="63"/>
-      <c r="C152" s="97"/>
-      <c r="D152" s="97"/>
+      <c r="C152" s="67"/>
+      <c r="D152" s="67"/>
       <c r="E152" s="65"/>
       <c r="F152" s="65"/>
       <c r="G152" s="65"/>
@@ -7847,108 +8246,16 @@
     <row r="153" spans="2:35" s="1" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="K50:P50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B27:AB27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
@@ -7973,16 +8280,108 @@
     <mergeCell ref="N29:N30"/>
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="P29:P30"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="B27:AB27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="K50:P50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C143:D143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
